--- a/Configuration/SalesCreateData.xlsx
+++ b/Configuration/SalesCreateData.xlsx
@@ -3,17 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E4BF9ADD-72BD-45B2-9699-2FF941257795}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myworkspace\IN4Suite4\Configuration\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C867BB36-D829-44E0-A49F-313A72DD31D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19800" windowHeight="6075" activeTab="1" xr2:uid="{8F011D42-EDC5-47A4-81F2-54032679ADAA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23850" windowHeight="6075" firstSheet="2" activeTab="6" xr2:uid="{8F011D42-EDC5-47A4-81F2-54032679ADAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads_Create" sheetId="1" r:id="rId1"/>
     <sheet name="Sales_Leads_Create" sheetId="2" r:id="rId2"/>
     <sheet name="PromotionAgent_Create" sheetId="4" r:id="rId3"/>
+    <sheet name="Unit_Create" sheetId="5" r:id="rId4"/>
+    <sheet name="Create_Booking" sheetId="9" r:id="rId5"/>
+    <sheet name="1" sheetId="7" r:id="rId6"/>
+    <sheet name="Sales_DemandLetter_Create" sheetId="10" r:id="rId7"/>
+    <sheet name="Sales_Receipt_Create" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P18"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="277">
   <si>
     <t>Title</t>
   </si>
@@ -419,6 +428,441 @@
   </si>
   <si>
     <t>MSME</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Sub Project</t>
+  </si>
+  <si>
+    <t>Floor Number</t>
+  </si>
+  <si>
+    <t>Floor Type</t>
+  </si>
+  <si>
+    <t>Unit No</t>
+  </si>
+  <si>
+    <t>Unit Type</t>
+  </si>
+  <si>
+    <t>Saleable Area</t>
+  </si>
+  <si>
+    <t>BURDWAN TOWNSHIP PHASE -2</t>
+  </si>
+  <si>
+    <t>Twin House - Dyuti-Phase III</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Ceramic Tiles Floor</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>IPS Floor</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Vitrified Tile Floor</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Marble Floor</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Granite Floor</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Terrazo Floor</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Any Other Floor</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Normal Floor</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>wooden flooring</t>
+  </si>
+  <si>
+    <t>RB</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Duplex</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>700</t>
+  </si>
+  <si>
+    <t>Payment Plan</t>
+  </si>
+  <si>
+    <t>Street Address</t>
+  </si>
+  <si>
+    <t>BURDWAN TOWNSHIP PHASE -2, Burdwan</t>
+  </si>
+  <si>
+    <t>Plan 2023</t>
+  </si>
+  <si>
+    <t>Bangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Mandya, Karnataka</t>
+  </si>
+  <si>
+    <t>Mysore, Karnataka</t>
+  </si>
+  <si>
+    <t>Magdi Road, Karnataka</t>
+  </si>
+  <si>
+    <t>Hassan, Karnataka</t>
+  </si>
+  <si>
+    <t>Mangalore, Karnataka</t>
+  </si>
+  <si>
+    <t>Magrath Road, Karnataka</t>
+  </si>
+  <si>
+    <t>Residency Road, Karnataka</t>
+  </si>
+  <si>
+    <t>Richmond Circle, Karnataka</t>
+  </si>
+  <si>
+    <t>Majestic, Karnataka</t>
+  </si>
+  <si>
+    <t>DemandAsOnDate</t>
+  </si>
+  <si>
+    <t>DemandDateUpto</t>
+  </si>
+  <si>
+    <t>Plan of 10 Installments</t>
+  </si>
+  <si>
+    <t>Jan 01, 2023</t>
+  </si>
+  <si>
+    <t>Jan 31, 2023</t>
+  </si>
+  <si>
+    <t>Feb 01, 2023</t>
+  </si>
+  <si>
+    <t>Feb 28, 2023</t>
+  </si>
+  <si>
+    <t>Mar 01, 2023</t>
+  </si>
+  <si>
+    <t>Mar 31, 2023</t>
+  </si>
+  <si>
+    <t>Apr 01, 2023</t>
+  </si>
+  <si>
+    <t>Apr 30, 2023</t>
+  </si>
+  <si>
+    <t>May 01, 2023</t>
+  </si>
+  <si>
+    <t>May 31, 2023</t>
+  </si>
+  <si>
+    <t>Jun 01, 2023</t>
+  </si>
+  <si>
+    <t>Jun 30, 2023</t>
+  </si>
+  <si>
+    <t>Jul 01, 2023</t>
+  </si>
+  <si>
+    <t>Jul 31, 2023</t>
+  </si>
+  <si>
+    <t>Aug 01, 2023</t>
+  </si>
+  <si>
+    <t>Aug 31, 2023</t>
+  </si>
+  <si>
+    <t>Sep 01, 2023</t>
+  </si>
+  <si>
+    <t>Sep 30, 2023</t>
+  </si>
+  <si>
+    <t>Oct 01, 2023</t>
+  </si>
+  <si>
+    <t>Oct 31, 2023</t>
+  </si>
+  <si>
+    <t>Receipt date</t>
+  </si>
+  <si>
+    <t>Show Schedules Till</t>
+  </si>
+  <si>
+    <t>Receipt Bank</t>
+  </si>
+  <si>
+    <t>Branch Name</t>
+  </si>
+  <si>
+    <t>Payable At</t>
+  </si>
+  <si>
+    <t>A/C No</t>
+  </si>
+  <si>
+    <t>Instrument No.</t>
+  </si>
+  <si>
+    <t>Jan 01, 2022</t>
+  </si>
+  <si>
+    <t>Jan 31, 2022</t>
+  </si>
+  <si>
+    <t>ABN AMRO BANK</t>
+  </si>
+  <si>
+    <t>MG Road, Bangalore</t>
+  </si>
+  <si>
+    <t>1266460054122560</t>
+  </si>
+  <si>
+    <t>INS01</t>
+  </si>
+  <si>
+    <t>Feb 01, 2022</t>
+  </si>
+  <si>
+    <t>Feb 28, 2022</t>
+  </si>
+  <si>
+    <t>ABU DHABI COMMERCIAL BANK</t>
+  </si>
+  <si>
+    <t>1266460054122561</t>
+  </si>
+  <si>
+    <t>INS02</t>
+  </si>
+  <si>
+    <t>Mar 01, 2022</t>
+  </si>
+  <si>
+    <t>Mar 31, 2022</t>
+  </si>
+  <si>
+    <t>ALGEMENE BANK AEDESLAND</t>
+  </si>
+  <si>
+    <t>1266460054122562</t>
+  </si>
+  <si>
+    <t>INS03</t>
+  </si>
+  <si>
+    <t>Apr 01, 2022</t>
+  </si>
+  <si>
+    <t>Apr 30, 2022</t>
+  </si>
+  <si>
+    <t>ASIA EXPRESS EXCHANGE</t>
+  </si>
+  <si>
+    <t>1266460054122563</t>
+  </si>
+  <si>
+    <t>INS04</t>
+  </si>
+  <si>
+    <t>May 01, 2022</t>
+  </si>
+  <si>
+    <t>May 31, 2022</t>
+  </si>
+  <si>
+    <t>BANK BOSTON</t>
+  </si>
+  <si>
+    <t>1266460054122564</t>
+  </si>
+  <si>
+    <t>INS05</t>
+  </si>
+  <si>
+    <t>Jun 01, 2022</t>
+  </si>
+  <si>
+    <t>Jun 30, 2022</t>
+  </si>
+  <si>
+    <t>BANK OF BAHRAIN</t>
+  </si>
+  <si>
+    <t>1266460054122565</t>
+  </si>
+  <si>
+    <t>INS06</t>
+  </si>
+  <si>
+    <t>Jul 01, 2022</t>
+  </si>
+  <si>
+    <t>Jul 31, 2022</t>
+  </si>
+  <si>
+    <t>BANK OF MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>1266460054122566</t>
+  </si>
+  <si>
+    <t>INS07</t>
+  </si>
+  <si>
+    <t>Aug 01, 2022</t>
+  </si>
+  <si>
+    <t>Aug 31, 2022</t>
+  </si>
+  <si>
+    <t>BANK OF TOKYO</t>
+  </si>
+  <si>
+    <t>1266460054122567</t>
+  </si>
+  <si>
+    <t>INS08</t>
+  </si>
+  <si>
+    <t>Sep 01, 2022</t>
+  </si>
+  <si>
+    <t>Sep 30, 2022</t>
+  </si>
+  <si>
+    <t>BANQUE NATIONALE DE PARIS</t>
+  </si>
+  <si>
+    <t>1266460054122568</t>
+  </si>
+  <si>
+    <t>INS09</t>
+  </si>
+  <si>
+    <t>Oct 01, 2022</t>
+  </si>
+  <si>
+    <t>Oct 31, 2022</t>
+  </si>
+  <si>
+    <t>Bhatpara Naihati Cooperative Bank Ltd</t>
+  </si>
+  <si>
+    <t>1266460054122569</t>
+  </si>
+  <si>
+    <t>INS10</t>
   </si>
 </sst>
 </file>
@@ -469,11 +913,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -791,7 +1238,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,8 +1558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4DE3D72-B8E1-4CA7-9D11-21BBC65369EE}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,7 +1837,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1897,4 +2344,2196 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC3EB3E-602A-45D8-A83E-E4AB2A0AE992}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D77B849-15A4-496B-957C-3ACC214BC1B8}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325750DB-867B-4B5F-9E3A-845F31F993C8}">
+  <dimension ref="A1:AD11"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:AD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AB5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AB11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A984E5-0727-4F72-8C32-815B596F8915}">
+  <dimension ref="A1:X11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5ED56D-031C-43DF-BA72-0781537EA39A}">
+  <dimension ref="A1:AD11"/>
+  <sheetViews>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD1" s="6"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD2" s="6"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AD3" s="6"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD4" s="6"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD5" s="6"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="V6" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z6" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA6" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="AD6" s="6"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AB7" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="AD7" s="6"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="AC8" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD8" s="6"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z9" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA9" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC9" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="AD9" s="6"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z10" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AC10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="AD10" s="6"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="V11" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="Z11" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA11" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AC11" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AD11" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Configuration/SalesCreateData.xlsx
+++ b/Configuration/SalesCreateData.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myworkspace\IN4Suite4\Configuration\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C867BB36-D829-44E0-A49F-313A72DD31D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E4B10626-92AF-4A98-8595-AAB97D5131DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23850" windowHeight="6075" firstSheet="2" activeTab="6" xr2:uid="{8F011D42-EDC5-47A4-81F2-54032679ADAA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="5595" firstSheet="9" activeTab="12" xr2:uid="{8F011D42-EDC5-47A4-81F2-54032679ADAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Leads_Create" sheetId="1" r:id="rId1"/>
@@ -18,11 +13,17 @@
     <sheet name="PromotionAgent_Create" sheetId="4" r:id="rId3"/>
     <sheet name="Unit_Create" sheetId="5" r:id="rId4"/>
     <sheet name="Create_Booking" sheetId="9" r:id="rId5"/>
-    <sheet name="1" sheetId="7" r:id="rId6"/>
-    <sheet name="Sales_DemandLetter_Create" sheetId="10" r:id="rId7"/>
-    <sheet name="Sales_Receipt_Create" sheetId="8" r:id="rId8"/>
+    <sheet name="Sales_DemandLetter_Create" sheetId="10" r:id="rId6"/>
+    <sheet name="Sales_Receipt_Create" sheetId="8" r:id="rId7"/>
+    <sheet name="CustomerCreditNote_Create" sheetId="11" r:id="rId8"/>
+    <sheet name="CustomerDebitNote_Create" sheetId="12" r:id="rId9"/>
+    <sheet name="AgentCreditNote_Create1" sheetId="13" r:id="rId10"/>
+    <sheet name="AgentCreditNote_Create" sheetId="14" r:id="rId11"/>
+    <sheet name="AgentDebitNote_Create1" sheetId="15" r:id="rId12"/>
+    <sheet name="AgentDebitNote_Create" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:M16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="355">
   <si>
     <t>Title</t>
   </si>
@@ -863,6 +864,240 @@
   </si>
   <si>
     <t>INS10</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Preetham 1906100501</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>Area Finalization Returns</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>AU2084</t>
+  </si>
+  <si>
+    <t>SBDPL/22-23/2132</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>65000</t>
+  </si>
+  <si>
+    <t>CGST</t>
+  </si>
+  <si>
+    <t>SGST</t>
+  </si>
+  <si>
+    <t>CGST 2.5%</t>
+  </si>
+  <si>
+    <t>SGST 2.5%</t>
+  </si>
+  <si>
+    <t>TDS</t>
+  </si>
+  <si>
+    <t>TDS 10.000 %</t>
+  </si>
+  <si>
+    <t>Addition Tax Category</t>
+  </si>
+  <si>
+    <t>Addition Tax Percentage</t>
+  </si>
+  <si>
+    <t>Ded Tax Category</t>
+  </si>
+  <si>
+    <t>Ded Tax Percentage</t>
+  </si>
+  <si>
+    <t>Search For UNIT No</t>
+  </si>
+  <si>
+    <t>Sub project</t>
+  </si>
+  <si>
+    <t>UNIT No</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>142000</t>
+  </si>
+  <si>
+    <t>32500</t>
+  </si>
+  <si>
+    <t>CGST 9%</t>
+  </si>
+  <si>
+    <t>SGST 9%</t>
+  </si>
+  <si>
+    <t>TDS 20.000 %</t>
+  </si>
+  <si>
+    <t>TDS on Brokerage 5%</t>
+  </si>
+  <si>
+    <t>Search By UNIT No</t>
+  </si>
+  <si>
+    <t>Charge Type</t>
+  </si>
+  <si>
+    <t>Schedule Amount</t>
+  </si>
+  <si>
+    <t>Bank Charge</t>
+  </si>
+  <si>
+    <t>35200</t>
+  </si>
+  <si>
+    <t>Common Infrastructure and Facilities</t>
+  </si>
+  <si>
+    <t>Commercial Plots</t>
+  </si>
+  <si>
+    <t>Partha Sarathi Nandi</t>
+  </si>
+  <si>
+    <t>Projecr</t>
+  </si>
+  <si>
+    <t>6COM-9.59K</t>
+  </si>
+  <si>
+    <t>28000</t>
+  </si>
+  <si>
+    <t>25900</t>
+  </si>
+  <si>
+    <t>Number of taxes adding(j)</t>
+  </si>
+  <si>
+    <t>Addition Tax 1</t>
+  </si>
+  <si>
+    <t>Addition Tax 2</t>
+  </si>
+  <si>
+    <t>CGST-CGST 9%</t>
+  </si>
+  <si>
+    <t>SGST-SGST 9%</t>
+  </si>
+  <si>
+    <t>CGST-CGST 6%</t>
+  </si>
+  <si>
+    <t>SGST-SGST 6%</t>
+  </si>
+  <si>
+    <t>SERVICE_TAX-SB Cess on EDC @0.5%</t>
+  </si>
+  <si>
+    <t>Amount Rate/Sq.Ft</t>
+  </si>
+  <si>
+    <t>Application money for grill</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>Shrachi Burdwan Developers Pvt. Ltd.</t>
+  </si>
+  <si>
+    <t>Preetam Samaddar</t>
+  </si>
+  <si>
+    <t>Recovery Amount</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>21400</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>Direct Debit</t>
+  </si>
+  <si>
+    <t>Debit Note Type</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Booking Cancellation</t>
+  </si>
+  <si>
+    <t>UN7130</t>
+  </si>
+  <si>
+    <t>Add Tax Cat 1</t>
+  </si>
+  <si>
+    <t>Add Tax Cat 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Tax Per1 </t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>CGST 4%</t>
+  </si>
+  <si>
+    <t>SGST 4%</t>
+  </si>
+  <si>
+    <t>Edit Page Data</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>AA1523</t>
+  </si>
+  <si>
+    <t>AA4788</t>
+  </si>
+  <si>
+    <t>AA8210</t>
   </si>
 </sst>
 </file>
@@ -1238,7 +1473,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1547,6 +1782,599 @@
         <v>53</v>
       </c>
       <c r="I11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49CA475-4E17-41BB-AF89-A176CD257C54}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCED6334-2615-4F1C-A6CC-596E4435599C}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AB46D5-6B6D-4F5D-AF11-BC8172E9EEFB}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:N4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" t="s">
+        <v>285</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="M3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C9A991-0DB0-4762-BFE6-FE6A4D8509E3}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1837,7 +2665,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2348,10 +3176,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC3EB3E-602A-45D8-A83E-E4AB2A0AE992}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2362,32 +3190,40 @@
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>139</v>
       </c>
@@ -2409,8 +3245,14 @@
       <c r="G2" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5" t="s">
@@ -2429,7 +3271,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5" t="s">
@@ -2448,7 +3290,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
@@ -2467,7 +3309,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
@@ -2486,7 +3328,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="5" t="s">
@@ -2505,7 +3347,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="5" t="s">
@@ -2524,7 +3366,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
@@ -2543,7 +3385,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5" t="s">
@@ -2562,7 +3404,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5" t="s">
@@ -2583,6 +3425,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2931,537 +3774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325750DB-867B-4B5F-9E3A-845F31F993C8}">
-  <dimension ref="A1:AD11"/>
-  <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:AD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AB2" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AC2" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB5" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB7" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB9" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="6"/>
-      <c r="Z10" s="6"/>
-      <c r="AA10" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="AC10" s="6"/>
-      <c r="AD10" s="6"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-      <c r="Z11" s="6"/>
-      <c r="AA11" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="AB11" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC11" s="6"/>
-      <c r="AD11" s="6"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A984E5-0727-4F72-8C32-815B596F8915}">
   <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3907,12 +4224,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5ED56D-031C-43DF-BA72-0781537EA39A}">
   <dimension ref="A1:AD11"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4536,4 +4853,394 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5AB35CD-C53B-4F44-BA11-6430B612EDD2}">
+  <dimension ref="A1:P4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" t="s">
+        <v>283</v>
+      </c>
+      <c r="H2" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K2" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" t="s">
+        <v>290</v>
+      </c>
+      <c r="N2" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F64394-5CB3-49D0-9C9A-8E8D5AF1E99D}">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" t="s">
+        <v>324</v>
+      </c>
+      <c r="N2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>